--- a/calibration/solar_rad_calibration_results.xlsx
+++ b/calibration/solar_rad_calibration_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jaengott\Documents\Projects\Russian_River\RR_GSFLOW\calibration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0575936C-4722-44A3-A189-6E865525033C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6949889-7890-4EA5-AAA8-2BD62EE17F8B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,6 +19,7 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId4"/>
+    <externalReference r:id="rId5"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -10870,6 +10871,19 @@
 </externalLink>
 </file>
 
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="solar_rad_clibration_results"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -11136,10 +11150,13 @@
   <dimension ref="B1:AA37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="11.44140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B1" t="s">

--- a/calibration/solar_rad_calibration_results.xlsx
+++ b/calibration/solar_rad_calibration_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jaengott\Documents\Projects\Russian_River\RR_GSFLOW\calibration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6949889-7890-4EA5-AAA8-2BD62EE17F8B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B754AE04-F08A-42B7-8AB8-216CE078A49B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,6 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId4"/>
-    <externalReference r:id="rId5"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="53">
   <si>
     <t>Name</t>
   </si>
@@ -189,6 +188,9 @@
   </si>
   <si>
     <t>dday_slope</t>
+  </si>
+  <si>
+    <t>Calculated</t>
   </si>
 </sst>
 </file>
@@ -817,7 +819,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Modelled</c:v>
+                  <c:v>Calculated</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -898,40 +900,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>214.517</c:v>
+                  <c:v>218.59200000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>286.404</c:v>
+                  <c:v>290.63400000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>388.541</c:v>
+                  <c:v>393.25</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>508.75200000000001</c:v>
+                  <c:v>513.12400000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>588.66999999999996</c:v>
+                  <c:v>588.24</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>632.84900000000005</c:v>
+                  <c:v>634.46199999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>681.07600000000002</c:v>
+                  <c:v>678.36099999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>647</c:v>
+                  <c:v>645.65700000000004</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>551.29100000000005</c:v>
+                  <c:v>550.69299999999998</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>401.21100000000001</c:v>
+                  <c:v>407.39699999999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>268.89999999999998</c:v>
+                  <c:v>272.01400000000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>188.559</c:v>
+                  <c:v>188.298</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1670,40 +1672,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>93.569199999999995</c:v>
+                  <c:v>92.959199999999996</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>164.20599999999999</c:v>
+                  <c:v>162.63300000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>281.91800000000001</c:v>
+                  <c:v>280.51499999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>429.65600000000001</c:v>
+                  <c:v>434.24</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>566.18799999999999</c:v>
+                  <c:v>565.51599999999996</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>647.04300000000001</c:v>
+                  <c:v>646.61400000000003</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>659.42499999999995</c:v>
+                  <c:v>659.30200000000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>572.66499999999996</c:v>
+                  <c:v>572.32299999999998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>416.45400000000001</c:v>
+                  <c:v>418.88799999999998</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>247.316</c:v>
+                  <c:v>250.874</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>129.02799999999999</c:v>
+                  <c:v>128.32499999999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>74.376800000000003</c:v>
+                  <c:v>72.182599999999994</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2315,40 +2317,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>196.614</c:v>
+                  <c:v>194.73</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>270.41500000000002</c:v>
+                  <c:v>272.2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>383.27499999999998</c:v>
+                  <c:v>385.21800000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>508.43799999999999</c:v>
+                  <c:v>512.53399999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>600.93899999999996</c:v>
+                  <c:v>602.24199999999996</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>647.78499999999997</c:v>
+                  <c:v>651.97900000000004</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>679.68799999999999</c:v>
+                  <c:v>680.41</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>623.58199999999999</c:v>
+                  <c:v>624.49699999999996</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>504.07100000000003</c:v>
+                  <c:v>505.76799999999997</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>350.95600000000002</c:v>
+                  <c:v>356.38299999999998</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>235.59</c:v>
+                  <c:v>236.39400000000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>168.464</c:v>
+                  <c:v>170.06800000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2690,37 +2692,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -2919,112 +2891,112 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="36"/>
                 <c:pt idx="0">
-                  <c:v>214.517</c:v>
+                  <c:v>218.59200000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>286.404</c:v>
+                  <c:v>290.63400000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>388.541</c:v>
+                  <c:v>393.25</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>508.75200000000001</c:v>
+                  <c:v>513.12400000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>588.66999999999996</c:v>
+                  <c:v>588.24</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>632.84900000000005</c:v>
+                  <c:v>634.46199999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>681.07600000000002</c:v>
+                  <c:v>678.36099999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>647</c:v>
+                  <c:v>645.65700000000004</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>551.29100000000005</c:v>
+                  <c:v>550.69299999999998</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>401.21100000000001</c:v>
+                  <c:v>407.39699999999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>268.89999999999998</c:v>
+                  <c:v>272.01400000000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>188.559</c:v>
+                  <c:v>188.298</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>93.569199999999995</c:v>
+                  <c:v>92.959199999999996</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>164.20599999999999</c:v>
+                  <c:v>162.63300000000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>281.91800000000001</c:v>
+                  <c:v>280.51499999999999</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>429.65600000000001</c:v>
+                  <c:v>434.24</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>566.18799999999999</c:v>
+                  <c:v>565.51599999999996</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>647.04300000000001</c:v>
+                  <c:v>646.61400000000003</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>659.42499999999995</c:v>
+                  <c:v>659.30200000000002</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>572.66499999999996</c:v>
+                  <c:v>572.32299999999998</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>416.45400000000001</c:v>
+                  <c:v>418.88799999999998</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>247.316</c:v>
+                  <c:v>250.874</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>129.02799999999999</c:v>
+                  <c:v>128.32499999999999</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>74.376800000000003</c:v>
+                  <c:v>72.182599999999994</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>196.614</c:v>
+                  <c:v>194.73</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>270.41500000000002</c:v>
+                  <c:v>272.2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>383.27499999999998</c:v>
+                  <c:v>385.21800000000002</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>508.43799999999999</c:v>
+                  <c:v>512.53399999999999</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>600.93899999999996</c:v>
+                  <c:v>602.24199999999996</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>647.78499999999997</c:v>
+                  <c:v>651.97900000000004</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>679.68799999999999</c:v>
+                  <c:v>680.41</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>623.58199999999999</c:v>
+                  <c:v>624.49699999999996</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>504.07100000000003</c:v>
+                  <c:v>505.76799999999997</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>350.95600000000002</c:v>
+                  <c:v>356.38299999999998</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>235.59</c:v>
+                  <c:v>236.39400000000001</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>168.464</c:v>
+                  <c:v>170.06800000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10871,19 +10843,6 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="solar_rad_clibration_results"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -11147,18 +11106,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:AA37"/>
+  <dimension ref="B1:M37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="Y10" sqref="Y10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="11.44140625" customWidth="1"/>
+    <col min="2" max="2" width="11.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -11169,7 +11128,7 @@
         <v>2</v>
       </c>
       <c r="F1" t="s">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="G1" t="s">
         <v>4</v>
@@ -11178,7 +11137,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>11</v>
       </c>
@@ -11192,26 +11151,17 @@
         <v>199.28</v>
       </c>
       <c r="F2">
-        <v>214.517</v>
+        <v>218.59200000000001</v>
       </c>
       <c r="G2">
-        <v>-15.237</v>
+        <v>-19.312100000000001</v>
       </c>
       <c r="H2">
         <v>1</v>
       </c>
       <c r="M2" s="1"/>
-      <c r="Y2">
-        <v>1</v>
-      </c>
-      <c r="Z2">
-        <v>213.61359999999999</v>
-      </c>
-      <c r="AA2">
-        <v>185.07</v>
-      </c>
     </row>
-    <row r="3" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>13</v>
       </c>
@@ -11225,26 +11175,17 @@
         <v>270.33</v>
       </c>
       <c r="F3">
-        <v>286.404</v>
+        <v>290.63400000000001</v>
       </c>
       <c r="G3">
-        <v>-16.073899999999998</v>
+        <v>-20.304200000000002</v>
       </c>
       <c r="H3">
         <v>1</v>
       </c>
       <c r="M3" s="1"/>
-      <c r="Y3">
-        <v>2</v>
-      </c>
-      <c r="Z3">
-        <v>272.40980000000002</v>
-      </c>
-      <c r="AA3">
-        <v>245.59</v>
-      </c>
     </row>
-    <row r="4" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>14</v>
       </c>
@@ -11258,26 +11199,17 @@
         <v>379.96</v>
       </c>
       <c r="F4">
-        <v>388.541</v>
+        <v>393.25</v>
       </c>
       <c r="G4">
-        <v>-8.58108</v>
+        <v>-13.2898</v>
       </c>
       <c r="H4">
         <v>1</v>
       </c>
       <c r="M4" s="1"/>
-      <c r="Y4">
-        <v>3</v>
-      </c>
-      <c r="Z4">
-        <v>375.33850000000001</v>
-      </c>
-      <c r="AA4">
-        <v>317.33</v>
-      </c>
     </row>
-    <row r="5" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>15</v>
       </c>
@@ -11291,26 +11223,17 @@
         <v>531.84</v>
       </c>
       <c r="F5">
-        <v>508.75200000000001</v>
+        <v>513.12400000000002</v>
       </c>
       <c r="G5">
-        <v>23.088000000000001</v>
+        <v>18.715699999999998</v>
       </c>
       <c r="H5">
         <v>1</v>
       </c>
       <c r="M5" s="1"/>
-      <c r="Y5">
-        <v>4</v>
-      </c>
-      <c r="Z5">
-        <v>479.62849999999997</v>
-      </c>
-      <c r="AA5">
-        <v>424.77</v>
-      </c>
     </row>
-    <row r="6" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>16</v>
       </c>
@@ -11324,26 +11247,17 @@
         <v>651.69000000000005</v>
       </c>
       <c r="F6">
-        <v>588.66999999999996</v>
+        <v>588.24</v>
       </c>
       <c r="G6">
-        <v>63.0197</v>
+        <v>63.45</v>
       </c>
       <c r="H6">
         <v>1</v>
       </c>
       <c r="M6" s="1"/>
-      <c r="Y6">
-        <v>5</v>
-      </c>
-      <c r="Z6">
-        <v>572.26170000000002</v>
-      </c>
-      <c r="AA6">
-        <v>505.9</v>
-      </c>
     </row>
-    <row r="7" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>17</v>
       </c>
@@ -11357,26 +11271,17 @@
         <v>718.91</v>
       </c>
       <c r="F7">
-        <v>632.84900000000005</v>
+        <v>634.46199999999999</v>
       </c>
       <c r="G7">
-        <v>86.060599999999994</v>
+        <v>84.448300000000003</v>
       </c>
       <c r="H7">
         <v>1</v>
       </c>
       <c r="M7" s="1"/>
-      <c r="Y7">
-        <v>6</v>
-      </c>
-      <c r="Z7">
-        <v>601.08550000000002</v>
-      </c>
-      <c r="AA7">
-        <v>544.59</v>
-      </c>
     </row>
-    <row r="8" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>18</v>
       </c>
@@ -11390,26 +11295,17 @@
         <v>735.75</v>
       </c>
       <c r="F8">
-        <v>681.07600000000002</v>
+        <v>678.36099999999999</v>
       </c>
       <c r="G8">
-        <v>54.6738</v>
+        <v>57.388800000000003</v>
       </c>
       <c r="H8">
         <v>1</v>
       </c>
       <c r="M8" s="1"/>
-      <c r="Y8">
-        <v>7</v>
-      </c>
-      <c r="Z8">
-        <v>645.60829999999999</v>
-      </c>
-      <c r="AA8">
-        <v>600.19000000000005</v>
-      </c>
     </row>
-    <row r="9" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>19</v>
       </c>
@@ -11423,26 +11319,17 @@
         <v>672.79</v>
       </c>
       <c r="F9">
-        <v>647</v>
+        <v>645.65700000000004</v>
       </c>
       <c r="G9">
-        <v>25.7897</v>
+        <v>27.1327</v>
       </c>
       <c r="H9">
         <v>1</v>
       </c>
       <c r="M9" s="1"/>
-      <c r="Y9">
-        <v>8</v>
-      </c>
-      <c r="Z9">
-        <v>620.71249999999998</v>
-      </c>
-      <c r="AA9">
-        <v>558.13</v>
-      </c>
     </row>
-    <row r="10" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>20</v>
       </c>
@@ -11456,26 +11343,17 @@
         <v>529.04999999999995</v>
       </c>
       <c r="F10">
-        <v>551.29100000000005</v>
+        <v>550.69299999999998</v>
       </c>
       <c r="G10">
-        <v>-22.240600000000001</v>
+        <v>-21.643000000000001</v>
       </c>
       <c r="H10">
         <v>1</v>
       </c>
       <c r="M10" s="1"/>
-      <c r="Y10">
-        <v>9</v>
-      </c>
-      <c r="Z10">
-        <v>536.73209999999995</v>
-      </c>
-      <c r="AA10">
-        <v>455.2</v>
-      </c>
     </row>
-    <row r="11" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
         <v>21</v>
       </c>
@@ -11489,26 +11367,17 @@
         <v>371.9</v>
       </c>
       <c r="F11">
-        <v>401.21100000000001</v>
+        <v>407.39699999999999</v>
       </c>
       <c r="G11">
-        <v>-29.310600000000001</v>
+        <v>-35.497100000000003</v>
       </c>
       <c r="H11">
         <v>1</v>
       </c>
       <c r="M11" s="1"/>
-      <c r="Y11">
-        <v>10</v>
-      </c>
-      <c r="Z11">
-        <v>396.85419999999999</v>
-      </c>
-      <c r="AA11">
-        <v>323.07</v>
-      </c>
     </row>
-    <row r="12" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
         <v>22</v>
       </c>
@@ -11522,26 +11391,17 @@
         <v>237.08</v>
       </c>
       <c r="F12">
-        <v>268.89999999999998</v>
+        <v>272.01400000000001</v>
       </c>
       <c r="G12">
-        <v>-31.819700000000001</v>
+        <v>-34.934399999999997</v>
       </c>
       <c r="H12">
         <v>1</v>
       </c>
       <c r="M12" s="1"/>
-      <c r="Y12">
-        <v>11</v>
-      </c>
-      <c r="Z12">
-        <v>270.0686</v>
-      </c>
-      <c r="AA12">
-        <v>242.89</v>
-      </c>
     </row>
-    <row r="13" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
         <v>23</v>
       </c>
@@ -11555,26 +11415,17 @@
         <v>166.64</v>
       </c>
       <c r="F13">
-        <v>188.559</v>
+        <v>188.298</v>
       </c>
       <c r="G13">
-        <v>-21.919499999999999</v>
+        <v>-21.658000000000001</v>
       </c>
       <c r="H13">
         <v>1</v>
       </c>
       <c r="M13" s="1"/>
-      <c r="Y13">
-        <v>12</v>
-      </c>
-      <c r="Z13">
-        <v>189.29650000000001</v>
-      </c>
-      <c r="AA13">
-        <v>170.86</v>
-      </c>
     </row>
-    <row r="14" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
         <v>24</v>
       </c>
@@ -11588,17 +11439,17 @@
         <v>185.07</v>
       </c>
       <c r="F14">
-        <v>93.569199999999995</v>
+        <v>92.959199999999996</v>
       </c>
       <c r="G14">
-        <v>91.500799999999998</v>
+        <v>92.110799999999998</v>
       </c>
       <c r="H14">
         <v>1</v>
       </c>
       <c r="M14" s="1"/>
     </row>
-    <row r="15" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
         <v>25</v>
       </c>
@@ -11612,17 +11463,17 @@
         <v>245.59</v>
       </c>
       <c r="F15">
-        <v>164.20599999999999</v>
+        <v>162.63300000000001</v>
       </c>
       <c r="G15">
-        <v>81.384</v>
+        <v>82.957499999999996</v>
       </c>
       <c r="H15">
         <v>1</v>
       </c>
       <c r="M15" s="1"/>
     </row>
-    <row r="16" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
         <v>26</v>
       </c>
@@ -11636,17 +11487,17 @@
         <v>317.33</v>
       </c>
       <c r="F16">
-        <v>281.91800000000001</v>
+        <v>280.51499999999999</v>
       </c>
       <c r="G16">
-        <v>35.412500000000001</v>
+        <v>36.814599999999999</v>
       </c>
       <c r="H16">
         <v>1</v>
       </c>
       <c r="M16" s="1"/>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
         <v>27</v>
       </c>
@@ -11660,17 +11511,17 @@
         <v>424.77</v>
       </c>
       <c r="F17">
-        <v>429.65600000000001</v>
+        <v>434.24</v>
       </c>
       <c r="G17">
-        <v>-4.8863200000000004</v>
+        <v>-9.4698700000000002</v>
       </c>
       <c r="H17">
         <v>1</v>
       </c>
       <c r="M17" s="1"/>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
         <v>28</v>
       </c>
@@ -11684,17 +11535,17 @@
         <v>505.9</v>
       </c>
       <c r="F18">
-        <v>566.18799999999999</v>
+        <v>565.51599999999996</v>
       </c>
       <c r="G18">
-        <v>-60.2879</v>
+        <v>-59.6158</v>
       </c>
       <c r="H18">
         <v>1</v>
       </c>
       <c r="M18" s="1"/>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
         <v>29</v>
       </c>
@@ -11708,17 +11559,17 @@
         <v>544.59</v>
       </c>
       <c r="F19">
-        <v>647.04300000000001</v>
+        <v>646.61400000000003</v>
       </c>
       <c r="G19">
-        <v>-102.453</v>
+        <v>-102.024</v>
       </c>
       <c r="H19">
         <v>1</v>
       </c>
       <c r="M19" s="1"/>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
         <v>30</v>
       </c>
@@ -11732,17 +11583,17 @@
         <v>600.19000000000005</v>
       </c>
       <c r="F20">
-        <v>659.42499999999995</v>
+        <v>659.30200000000002</v>
       </c>
       <c r="G20">
-        <v>-59.235100000000003</v>
+        <v>-59.112099999999998</v>
       </c>
       <c r="H20">
         <v>1</v>
       </c>
       <c r="M20" s="1"/>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B21" t="s">
         <v>31</v>
       </c>
@@ -11756,17 +11607,17 @@
         <v>558.13</v>
       </c>
       <c r="F21">
-        <v>572.66499999999996</v>
+        <v>572.32299999999998</v>
       </c>
       <c r="G21">
-        <v>-14.535299999999999</v>
+        <v>-14.1927</v>
       </c>
       <c r="H21">
         <v>1</v>
       </c>
       <c r="M21" s="1"/>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B22" t="s">
         <v>32</v>
       </c>
@@ -11780,17 +11631,17 @@
         <v>455.2</v>
       </c>
       <c r="F22">
-        <v>416.45400000000001</v>
+        <v>418.88799999999998</v>
       </c>
       <c r="G22">
-        <v>38.746299999999998</v>
+        <v>36.311900000000001</v>
       </c>
       <c r="H22">
         <v>1</v>
       </c>
       <c r="M22" s="1"/>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B23" t="s">
         <v>33</v>
       </c>
@@ -11804,17 +11655,17 @@
         <v>323.07</v>
       </c>
       <c r="F23">
-        <v>247.316</v>
+        <v>250.874</v>
       </c>
       <c r="G23">
-        <v>75.753600000000006</v>
+        <v>72.195499999999996</v>
       </c>
       <c r="H23">
         <v>1</v>
       </c>
       <c r="M23" s="1"/>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B24" t="s">
         <v>34</v>
       </c>
@@ -11828,17 +11679,17 @@
         <v>242.89</v>
       </c>
       <c r="F24">
-        <v>129.02799999999999</v>
+        <v>128.32499999999999</v>
       </c>
       <c r="G24">
-        <v>113.86199999999999</v>
+        <v>114.565</v>
       </c>
       <c r="H24">
         <v>1</v>
       </c>
       <c r="M24" s="1"/>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B25" t="s">
         <v>35</v>
       </c>
@@ -11852,17 +11703,17 @@
         <v>170.86</v>
       </c>
       <c r="F25">
-        <v>74.376800000000003</v>
+        <v>72.182599999999994</v>
       </c>
       <c r="G25">
-        <v>96.483199999999997</v>
+        <v>98.677400000000006</v>
       </c>
       <c r="H25">
         <v>1</v>
       </c>
       <c r="M25" s="1"/>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B26" t="s">
         <v>36</v>
       </c>
@@ -11876,17 +11727,17 @@
         <v>168.5</v>
       </c>
       <c r="F26">
-        <v>196.614</v>
+        <v>194.73</v>
       </c>
       <c r="G26">
-        <v>-28.1143</v>
+        <v>-26.230399999999999</v>
       </c>
       <c r="H26">
         <v>1</v>
       </c>
       <c r="M26" s="1"/>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B27" t="s">
         <v>37</v>
       </c>
@@ -11900,17 +11751,17 @@
         <v>233.82</v>
       </c>
       <c r="F27">
-        <v>270.41500000000002</v>
+        <v>272.2</v>
       </c>
       <c r="G27">
-        <v>-36.595399999999998</v>
+        <v>-38.380099999999999</v>
       </c>
       <c r="H27">
         <v>1</v>
       </c>
       <c r="M27" s="1"/>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B28" t="s">
         <v>38</v>
       </c>
@@ -11924,17 +11775,17 @@
         <v>363.4</v>
       </c>
       <c r="F28">
-        <v>383.27499999999998</v>
+        <v>385.21800000000002</v>
       </c>
       <c r="G28">
-        <v>-19.875</v>
+        <v>-21.817599999999999</v>
       </c>
       <c r="H28">
         <v>1</v>
       </c>
       <c r="M28" s="1"/>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B29" t="s">
         <v>39</v>
       </c>
@@ -11948,17 +11799,17 @@
         <v>486.7</v>
       </c>
       <c r="F29">
-        <v>508.43799999999999</v>
+        <v>512.53399999999999</v>
       </c>
       <c r="G29">
-        <v>-21.7379</v>
+        <v>-25.833600000000001</v>
       </c>
       <c r="H29">
         <v>1</v>
       </c>
       <c r="M29" s="1"/>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B30" t="s">
         <v>40</v>
       </c>
@@ -11972,17 +11823,17 @@
         <v>591.92999999999995</v>
       </c>
       <c r="F30">
-        <v>600.93899999999996</v>
+        <v>602.24199999999996</v>
       </c>
       <c r="G30">
-        <v>-9.0086099999999991</v>
+        <v>-10.3123</v>
       </c>
       <c r="H30">
         <v>1</v>
       </c>
       <c r="M30" s="1"/>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B31" t="s">
         <v>41</v>
       </c>
@@ -11996,17 +11847,17 @@
         <v>664.4</v>
       </c>
       <c r="F31">
-        <v>647.78499999999997</v>
+        <v>651.97900000000004</v>
       </c>
       <c r="G31">
-        <v>16.615100000000002</v>
+        <v>12.4208</v>
       </c>
       <c r="H31">
         <v>1</v>
       </c>
       <c r="M31" s="1"/>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B32" t="s">
         <v>42</v>
       </c>
@@ -12020,17 +11871,17 @@
         <v>686.67</v>
       </c>
       <c r="F32">
-        <v>679.68799999999999</v>
+        <v>680.41</v>
       </c>
       <c r="G32">
-        <v>6.9818300000000004</v>
+        <v>6.2598000000000003</v>
       </c>
       <c r="H32">
         <v>1</v>
       </c>
       <c r="M32" s="1"/>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B33" t="s">
         <v>43</v>
       </c>
@@ -12044,17 +11895,17 @@
         <v>609.6</v>
       </c>
       <c r="F33">
-        <v>623.58199999999999</v>
+        <v>624.49699999999996</v>
       </c>
       <c r="G33">
-        <v>-13.982100000000001</v>
+        <v>-14.896800000000001</v>
       </c>
       <c r="H33">
         <v>1</v>
       </c>
       <c r="M33" s="1"/>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B34" t="s">
         <v>44</v>
       </c>
@@ -12068,17 +11919,17 @@
         <v>494</v>
       </c>
       <c r="F34">
-        <v>504.07100000000003</v>
+        <v>505.76799999999997</v>
       </c>
       <c r="G34">
-        <v>-10.0707</v>
+        <v>-11.7676</v>
       </c>
       <c r="H34">
         <v>1</v>
       </c>
       <c r="M34" s="1"/>
     </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B35" t="s">
         <v>45</v>
       </c>
@@ -12092,17 +11943,17 @@
         <v>330.33</v>
       </c>
       <c r="F35">
-        <v>350.95600000000002</v>
+        <v>356.38299999999998</v>
       </c>
       <c r="G35">
-        <v>-20.625599999999999</v>
+        <v>-26.052700000000002</v>
       </c>
       <c r="H35">
         <v>1</v>
       </c>
       <c r="M35" s="1"/>
     </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B36" t="s">
         <v>46</v>
       </c>
@@ -12116,17 +11967,17 @@
         <v>209</v>
       </c>
       <c r="F36">
-        <v>235.59</v>
+        <v>236.39400000000001</v>
       </c>
       <c r="G36">
-        <v>-26.5898</v>
+        <v>-27.393899999999999</v>
       </c>
       <c r="H36">
         <v>1</v>
       </c>
       <c r="M36" s="1"/>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B37" t="s">
         <v>47</v>
       </c>
@@ -12140,10 +11991,10 @@
         <v>149.29</v>
       </c>
       <c r="F37">
-        <v>168.464</v>
+        <v>170.06800000000001</v>
       </c>
       <c r="G37">
-        <v>-19.173500000000001</v>
+        <v>-20.7776</v>
       </c>
       <c r="H37">
         <v>1</v>
@@ -12164,9 +12015,9 @@
       <selection activeCell="Y35" sqref="Y35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:27" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -12201,7 +12052,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:27" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>11</v>
       </c>
@@ -12248,7 +12099,7 @@
         <v>185.07</v>
       </c>
     </row>
-    <row r="3" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:27" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>13</v>
       </c>
@@ -12295,7 +12146,7 @@
         <v>245.59</v>
       </c>
     </row>
-    <row r="4" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:27" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>14</v>
       </c>
@@ -12342,7 +12193,7 @@
         <v>317.33</v>
       </c>
     </row>
-    <row r="5" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:27" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>15</v>
       </c>
@@ -12389,7 +12240,7 @@
         <v>424.77</v>
       </c>
     </row>
-    <row r="6" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:27" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>16</v>
       </c>
@@ -12436,7 +12287,7 @@
         <v>505.9</v>
       </c>
     </row>
-    <row r="7" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:27" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>17</v>
       </c>
@@ -12483,7 +12334,7 @@
         <v>544.59</v>
       </c>
     </row>
-    <row r="8" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:27" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>18</v>
       </c>
@@ -12530,7 +12381,7 @@
         <v>600.19000000000005</v>
       </c>
     </row>
-    <row r="9" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:27" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>19</v>
       </c>
@@ -12577,7 +12428,7 @@
         <v>558.13</v>
       </c>
     </row>
-    <row r="10" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:27" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>20</v>
       </c>
@@ -12624,7 +12475,7 @@
         <v>455.2</v>
       </c>
     </row>
-    <row r="11" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:27" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
         <v>21</v>
       </c>
@@ -12671,7 +12522,7 @@
         <v>323.07</v>
       </c>
     </row>
-    <row r="12" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:27" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
         <v>22</v>
       </c>
@@ -12718,7 +12569,7 @@
         <v>242.89</v>
       </c>
     </row>
-    <row r="13" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:27" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
         <v>23</v>
       </c>
@@ -12765,7 +12616,7 @@
         <v>170.86</v>
       </c>
     </row>
-    <row r="14" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:27" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
         <v>24</v>
       </c>
@@ -12803,7 +12654,7 @@
         <v>1.0247551000000001E-2</v>
       </c>
     </row>
-    <row r="15" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:27" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
         <v>25</v>
       </c>
@@ -12841,7 +12692,7 @@
         <v>1.0247551000000001E-2</v>
       </c>
     </row>
-    <row r="16" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:27" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
         <v>26</v>
       </c>
@@ -12879,7 +12730,7 @@
         <v>1.0247551000000001E-2</v>
       </c>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
         <v>27</v>
       </c>
@@ -12917,7 +12768,7 @@
         <v>1.0247551000000001E-2</v>
       </c>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
         <v>28</v>
       </c>
@@ -12955,7 +12806,7 @@
         <v>1.0247551000000001E-2</v>
       </c>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
         <v>29</v>
       </c>
@@ -12993,7 +12844,7 @@
         <v>1.0247551000000001E-2</v>
       </c>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
         <v>30</v>
       </c>
@@ -13031,7 +12882,7 @@
         <v>1.0247551000000001E-2</v>
       </c>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B21" t="s">
         <v>31</v>
       </c>
@@ -13069,7 +12920,7 @@
         <v>1.0247551000000001E-2</v>
       </c>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B22" t="s">
         <v>32</v>
       </c>
@@ -13107,7 +12958,7 @@
         <v>1.0247551000000001E-2</v>
       </c>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B23" t="s">
         <v>33</v>
       </c>
@@ -13145,7 +12996,7 @@
         <v>1.0247551000000001E-2</v>
       </c>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B24" t="s">
         <v>34</v>
       </c>
@@ -13183,7 +13034,7 @@
         <v>1.0247551000000001E-2</v>
       </c>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B25" t="s">
         <v>35</v>
       </c>
@@ -13221,7 +13072,7 @@
         <v>1.0247551000000001E-2</v>
       </c>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B26" t="s">
         <v>36</v>
       </c>
@@ -13259,7 +13110,7 @@
         <v>1.0247551000000001E-2</v>
       </c>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B27" t="s">
         <v>37</v>
       </c>
@@ -13297,7 +13148,7 @@
         <v>1.0247551000000001E-2</v>
       </c>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B28" t="s">
         <v>38</v>
       </c>
@@ -13335,7 +13186,7 @@
         <v>1.0247551000000001E-2</v>
       </c>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B29" t="s">
         <v>39</v>
       </c>
@@ -13373,7 +13224,7 @@
         <v>1.0247551000000001E-2</v>
       </c>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B30" t="s">
         <v>40</v>
       </c>
@@ -13411,7 +13262,7 @@
         <v>1.0247551000000001E-2</v>
       </c>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B31" t="s">
         <v>41</v>
       </c>
@@ -13449,7 +13300,7 @@
         <v>1.0247551000000001E-2</v>
       </c>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B32" t="s">
         <v>42</v>
       </c>
@@ -13487,7 +13338,7 @@
         <v>1.0247551000000001E-2</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B33" t="s">
         <v>43</v>
       </c>
@@ -13525,7 +13376,7 @@
         <v>1.0247551000000001E-2</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B34" t="s">
         <v>44</v>
       </c>
@@ -13563,7 +13414,7 @@
         <v>1.0247551000000001E-2</v>
       </c>
     </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B35" t="s">
         <v>45</v>
       </c>
@@ -13601,7 +13452,7 @@
         <v>1.0247551000000001E-2</v>
       </c>
     </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B36" t="s">
         <v>46</v>
       </c>
@@ -13639,7 +13490,7 @@
         <v>1.0247551000000001E-2</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B37" t="s">
         <v>47</v>
       </c>
@@ -13691,9 +13542,9 @@
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>48</v>
       </c>
@@ -13701,92 +13552,92 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>-1.6903379000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>-0.92800525</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>-1.5979367</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>-1.5819105E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>-0.10198525999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>-0.49071071999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>-2.1165891000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>-1.9466648</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>-1.9112321000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>-1.5684910999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>-1.3967362999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>-1.6972885</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>51</v>
       </c>
@@ -13794,82 +13645,82 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>0.33112588999999998</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>0.27847153000000002</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>0.33246028999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>0.25767695000000002</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>0.27057301</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>0.33000464000000002</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>0.45576324000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>0.55071853999999998</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>0.38159872</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>0.27108272</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>0.28606215000000002</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>0.31649618000000002</v>
       </c>
